--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H2">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I2">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J2">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.073673</v>
       </c>
       <c r="O2">
-        <v>0.050532535125095</v>
+        <v>0.03892688336861549</v>
       </c>
       <c r="P2">
-        <v>0.050532535125095</v>
+        <v>0.03893808583788527</v>
       </c>
       <c r="Q2">
-        <v>0.3050214621251111</v>
+        <v>0.4404743806197778</v>
       </c>
       <c r="R2">
-        <v>2.745193159125999</v>
+        <v>3.964269425578</v>
       </c>
       <c r="S2">
-        <v>0.004673405311216873</v>
+        <v>0.004776250005802871</v>
       </c>
       <c r="T2">
-        <v>0.005038179872053899</v>
+        <v>0.005247884159517303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H3">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I3">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J3">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.308263</v>
+        <v>0.2696353333333334</v>
       </c>
       <c r="N3">
-        <v>0.924789</v>
+        <v>0.8089060000000001</v>
       </c>
       <c r="O3">
-        <v>0.6343155922224082</v>
+        <v>0.427404741468018</v>
       </c>
       <c r="P3">
-        <v>0.6343155922224082</v>
+        <v>0.4275277410011866</v>
       </c>
       <c r="Q3">
-        <v>3.828817788568666</v>
+        <v>4.83626795881289</v>
       </c>
       <c r="R3">
-        <v>34.45936009711799</v>
+        <v>43.526411629316</v>
       </c>
       <c r="S3">
-        <v>0.0586634699870365</v>
+        <v>0.0524416989561166</v>
       </c>
       <c r="T3">
-        <v>0.06324234557703437</v>
+        <v>0.0576200912673368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H4">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I4">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J4">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1531566666666667</v>
+        <v>0.0005445</v>
       </c>
       <c r="N4">
-        <v>0.45947</v>
+        <v>0.001089</v>
       </c>
       <c r="O4">
-        <v>0.3151518726524968</v>
+        <v>0.000863098611195871</v>
       </c>
       <c r="P4">
-        <v>0.3151518726524968</v>
+        <v>0.0005755646638179122</v>
       </c>
       <c r="Q4">
-        <v>1.902300859237777</v>
+        <v>0.009766330958999998</v>
       </c>
       <c r="R4">
-        <v>17.12070773314</v>
+        <v>0.05859798575399999</v>
       </c>
       <c r="S4">
-        <v>0.0291462209811575</v>
+        <v>0.0001059004572160627</v>
       </c>
       <c r="T4">
-        <v>0.03142117880108866</v>
+        <v>7.757178138143337E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.44330666666667</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H5">
-        <v>172.32992</v>
+        <v>53.808986</v>
       </c>
       <c r="I5">
-        <v>0.4277189525092218</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J5">
-        <v>0.4611038148683137</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02455766666666667</v>
+        <v>0.336129</v>
       </c>
       <c r="N5">
-        <v>0.073673</v>
+        <v>1.008387</v>
       </c>
       <c r="O5">
-        <v>0.050532535125095</v>
+        <v>0.5328052765521707</v>
       </c>
       <c r="P5">
-        <v>0.050532535125095</v>
+        <v>0.5329586084971102</v>
       </c>
       <c r="Q5">
-        <v>1.410673577351111</v>
+        <v>6.028920218397999</v>
       </c>
       <c r="R5">
-        <v>12.69606219616</v>
+        <v>54.260281965582</v>
       </c>
       <c r="S5">
-        <v>0.02161372299134109</v>
+        <v>0.06537413183393563</v>
       </c>
       <c r="T5">
-        <v>0.02330074472114836</v>
+        <v>0.07182954629190033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>172.32992</v>
       </c>
       <c r="I6">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J6">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.308263</v>
+        <v>0.02455766666666667</v>
       </c>
       <c r="N6">
-        <v>0.924789</v>
+        <v>0.073673</v>
       </c>
       <c r="O6">
-        <v>0.6343155922224082</v>
+        <v>0.03892688336861549</v>
       </c>
       <c r="P6">
-        <v>0.6343155922224082</v>
+        <v>0.03893808583788527</v>
       </c>
       <c r="Q6">
-        <v>17.70764604298667</v>
+        <v>1.410673577351111</v>
       </c>
       <c r="R6">
-        <v>159.36881438688</v>
+        <v>12.69606219616</v>
       </c>
       <c r="S6">
-        <v>0.2713088006656351</v>
+        <v>0.01529653023753334</v>
       </c>
       <c r="T6">
-        <v>0.2924853394042061</v>
+        <v>0.01680699683467152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J7">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1531566666666667</v>
+        <v>0.2696353333333334</v>
       </c>
       <c r="N7">
-        <v>0.45947</v>
+        <v>0.8089060000000001</v>
       </c>
       <c r="O7">
-        <v>0.3151518726524968</v>
+        <v>0.427404741468018</v>
       </c>
       <c r="P7">
-        <v>0.3151518726524968</v>
+        <v>0.4275277410011866</v>
       </c>
       <c r="Q7">
-        <v>8.797825371377778</v>
+        <v>15.48874514083556</v>
       </c>
       <c r="R7">
-        <v>79.18042834240001</v>
+        <v>139.39870626752</v>
       </c>
       <c r="S7">
-        <v>0.1347964288522456</v>
+        <v>0.1679510144601435</v>
       </c>
       <c r="T7">
-        <v>0.1453177307429593</v>
+        <v>0.1845354550723712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.62576466666667</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H8">
-        <v>49.877294</v>
+        <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.1237943123496749</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J8">
-        <v>0.1334568630839523</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.02455766666666667</v>
+        <v>0.0005445</v>
       </c>
       <c r="N8">
-        <v>0.073673</v>
+        <v>0.001089</v>
       </c>
       <c r="O8">
-        <v>0.050532535125095</v>
+        <v>0.000863098611195871</v>
       </c>
       <c r="P8">
-        <v>0.050532535125095</v>
+        <v>0.0005755646638179122</v>
       </c>
       <c r="Q8">
-        <v>0.4082899867624444</v>
+        <v>0.03127788048</v>
       </c>
       <c r="R8">
-        <v>3.674609880862</v>
+        <v>0.18766728288</v>
       </c>
       <c r="S8">
-        <v>0.00625564043709693</v>
+        <v>0.0003391592868895079</v>
       </c>
       <c r="T8">
-        <v>0.006743913621474814</v>
+        <v>0.0002484332055564085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.62576466666667</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H9">
-        <v>49.877294</v>
+        <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.1237943123496749</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J9">
-        <v>0.1334568630839523</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.308263</v>
+        <v>0.336129</v>
       </c>
       <c r="N9">
-        <v>0.924789</v>
+        <v>1.008387</v>
       </c>
       <c r="O9">
-        <v>0.6343155922224082</v>
+        <v>0.5328052765521707</v>
       </c>
       <c r="P9">
-        <v>0.6343155922224082</v>
+        <v>0.5329586084971102</v>
       </c>
       <c r="Q9">
-        <v>5.125108093440667</v>
+        <v>19.30836122656</v>
       </c>
       <c r="R9">
-        <v>46.125972840966</v>
+        <v>173.77525103904</v>
       </c>
       <c r="S9">
-        <v>0.07852466255184982</v>
+        <v>0.2093687271678299</v>
       </c>
       <c r="T9">
-        <v>0.08465376914324205</v>
+        <v>0.23004298884427</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H10">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I10">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J10">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,33 +1054,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1531566666666667</v>
+        <v>0.02455766666666667</v>
       </c>
       <c r="N10">
-        <v>0.45947</v>
+        <v>0.073673</v>
       </c>
       <c r="O10">
-        <v>0.3151518726524968</v>
+        <v>0.03892688336861549</v>
       </c>
       <c r="P10">
-        <v>0.3151518726524968</v>
+        <v>0.03893808583788527</v>
       </c>
       <c r="Q10">
-        <v>2.546346697131111</v>
+        <v>0.2363988117622222</v>
       </c>
       <c r="R10">
-        <v>22.91712027418</v>
+        <v>2.12758930586</v>
       </c>
       <c r="S10">
-        <v>0.03901400936072816</v>
+        <v>0.002563372299797289</v>
       </c>
       <c r="T10">
-        <v>0.04205918031923544</v>
+        <v>0.002816494293788616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.1711175</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H11">
-        <v>58.342235</v>
+        <v>28.87882</v>
       </c>
       <c r="I11">
-        <v>0.2172061558542491</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J11">
-        <v>0.156106537544053</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02455766666666667</v>
+        <v>0.2696353333333334</v>
       </c>
       <c r="N11">
-        <v>0.073673</v>
+        <v>0.8089060000000001</v>
       </c>
       <c r="O11">
-        <v>0.050532535125095</v>
+        <v>0.427404741468018</v>
       </c>
       <c r="P11">
-        <v>0.050532535125095</v>
+        <v>0.4275277410011866</v>
       </c>
       <c r="Q11">
-        <v>0.7163745798591666</v>
+        <v>2.595583418991112</v>
       </c>
       <c r="R11">
-        <v>4.298247479155</v>
+        <v>23.36025077092</v>
       </c>
       <c r="S11">
-        <v>0.0109759777000917</v>
+        <v>0.02814500880295123</v>
       </c>
       <c r="T11">
-        <v>0.007888459091701818</v>
+        <v>0.03092420741942603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.1711175</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H12">
-        <v>58.342235</v>
+        <v>28.87882</v>
       </c>
       <c r="I12">
-        <v>0.2172061558542491</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J12">
-        <v>0.156106537544053</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.308263</v>
+        <v>0.0005445</v>
       </c>
       <c r="N12">
-        <v>0.924789</v>
+        <v>0.001089</v>
       </c>
       <c r="O12">
-        <v>0.6343155922224082</v>
+        <v>0.000863098611195871</v>
       </c>
       <c r="P12">
-        <v>0.6343155922224082</v>
+        <v>0.0005755646638179122</v>
       </c>
       <c r="Q12">
-        <v>8.9923761939025</v>
+        <v>0.00524150583</v>
       </c>
       <c r="R12">
-        <v>53.95425716341499</v>
+        <v>0.03144903498</v>
       </c>
       <c r="S12">
-        <v>0.1377772513850407</v>
+        <v>5.683586458701112E-05</v>
       </c>
       <c r="T12">
-        <v>0.09902081081204557</v>
+        <v>4.163210790840337E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.1711175</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H13">
-        <v>58.342235</v>
+        <v>28.87882</v>
       </c>
       <c r="I13">
-        <v>0.2172061558542491</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J13">
-        <v>0.156106537544053</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1531566666666667</v>
+        <v>0.336129</v>
       </c>
       <c r="N13">
-        <v>0.45947</v>
+        <v>1.008387</v>
       </c>
       <c r="O13">
-        <v>0.3151518726524968</v>
+        <v>0.5328052765521707</v>
       </c>
       <c r="P13">
-        <v>0.3151518726524968</v>
+        <v>0.5329586084971102</v>
       </c>
       <c r="Q13">
-        <v>4.467751119241666</v>
+        <v>3.23566962926</v>
       </c>
       <c r="R13">
-        <v>26.80650671545</v>
+        <v>29.12102666334</v>
       </c>
       <c r="S13">
-        <v>0.0684529267691167</v>
+        <v>0.03508573430260323</v>
       </c>
       <c r="T13">
-        <v>0.0491972676403056</v>
+        <v>0.038550299722159</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.64071333333333</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H14">
-        <v>55.92214</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I14">
-        <v>0.1387974830074432</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J14">
-        <v>0.149631080253504</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,27 +1308,27 @@
         <v>0.073673</v>
       </c>
       <c r="O14">
-        <v>0.050532535125095</v>
+        <v>0.03892688336861549</v>
       </c>
       <c r="P14">
-        <v>0.050532535125095</v>
+        <v>0.03893808583788527</v>
       </c>
       <c r="Q14">
-        <v>0.4577724244688889</v>
+        <v>0.9650680810215</v>
       </c>
       <c r="R14">
-        <v>4.11995182022</v>
+        <v>5.790408486128999</v>
       </c>
       <c r="S14">
-        <v>0.007013788685348402</v>
+        <v>0.01046464137390545</v>
       </c>
       <c r="T14">
-        <v>0.007561237818716099</v>
+        <v>0.007665319812883402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.64071333333333</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H15">
-        <v>55.92214</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I15">
-        <v>0.1387974830074432</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J15">
-        <v>0.149631080253504</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.308263</v>
+        <v>0.2696353333333334</v>
       </c>
       <c r="N15">
-        <v>0.924789</v>
+        <v>0.8089060000000001</v>
       </c>
       <c r="O15">
-        <v>0.6343155922224082</v>
+        <v>0.427404741468018</v>
       </c>
       <c r="P15">
-        <v>0.6343155922224082</v>
+        <v>0.4275277410011866</v>
       </c>
       <c r="Q15">
-        <v>5.746242214273334</v>
+        <v>10.596139171023</v>
       </c>
       <c r="R15">
-        <v>51.71617992846</v>
+        <v>63.576835026138</v>
       </c>
       <c r="S15">
-        <v>0.088041407632846</v>
+        <v>0.1148984186228383</v>
       </c>
       <c r="T15">
-        <v>0.09491332728588006</v>
+        <v>0.08416276232215684</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>39.29803649999999</v>
+      </c>
+      <c r="H16">
+        <v>78.59607299999999</v>
+      </c>
+      <c r="I16">
+        <v>0.2688281328564436</v>
+      </c>
+      <c r="J16">
+        <v>0.1968591842135532</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0005445</v>
+      </c>
+      <c r="N16">
+        <v>0.001089</v>
+      </c>
+      <c r="O16">
+        <v>0.000863098611195871</v>
+      </c>
+      <c r="P16">
+        <v>0.0005755646638179122</v>
+      </c>
+      <c r="Q16">
+        <v>0.02139778087425</v>
+      </c>
+      <c r="R16">
+        <v>0.08559112349699999</v>
+      </c>
+      <c r="S16">
+        <v>0.0002320251881187756</v>
+      </c>
+      <c r="T16">
+        <v>0.0001133051901813422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.29803649999999</v>
+      </c>
+      <c r="H17">
+        <v>78.59607299999999</v>
+      </c>
+      <c r="I17">
+        <v>0.2688281328564436</v>
+      </c>
+      <c r="J17">
+        <v>0.1968591842135532</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.336129</v>
+      </c>
+      <c r="N17">
+        <v>1.008387</v>
+      </c>
+      <c r="O17">
+        <v>0.5328052765521707</v>
+      </c>
+      <c r="P17">
+        <v>0.5329586084971102</v>
+      </c>
+      <c r="Q17">
+        <v>13.2092097107085</v>
+      </c>
+      <c r="R17">
+        <v>79.25525826425098</v>
+      </c>
+      <c r="S17">
+        <v>0.1432330476715811</v>
+      </c>
+      <c r="T17">
+        <v>0.1049177968883316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>18.64071333333333</v>
-      </c>
-      <c r="H16">
-        <v>55.92214</v>
-      </c>
-      <c r="I16">
-        <v>0.1387974830074432</v>
-      </c>
-      <c r="J16">
-        <v>0.149631080253504</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>21.87880766666666</v>
+      </c>
+      <c r="H18">
+        <v>65.63642299999999</v>
+      </c>
+      <c r="I18">
+        <v>0.1496675034681502</v>
+      </c>
+      <c r="J18">
+        <v>0.1643992147861598</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M16">
-        <v>0.1531566666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.45947</v>
-      </c>
-      <c r="O16">
-        <v>0.3151518726524968</v>
-      </c>
-      <c r="P16">
-        <v>0.3151518726524968</v>
-      </c>
-      <c r="Q16">
-        <v>2.854949518422222</v>
-      </c>
-      <c r="R16">
-        <v>25.6945456658</v>
-      </c>
-      <c r="S16">
-        <v>0.04374228668924884</v>
-      </c>
-      <c r="T16">
-        <v>0.04715651514890781</v>
+      <c r="M18">
+        <v>0.02455766666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.073673</v>
+      </c>
+      <c r="O18">
+        <v>0.03892688336861549</v>
+      </c>
+      <c r="P18">
+        <v>0.03893808583788527</v>
+      </c>
+      <c r="Q18">
+        <v>0.5372924657421111</v>
+      </c>
+      <c r="R18">
+        <v>4.835632191678999</v>
+      </c>
+      <c r="S18">
+        <v>0.005826089451576539</v>
+      </c>
+      <c r="T18">
+        <v>0.006401390737024428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>21.87880766666666</v>
+      </c>
+      <c r="H19">
+        <v>65.63642299999999</v>
+      </c>
+      <c r="I19">
+        <v>0.1496675034681502</v>
+      </c>
+      <c r="J19">
+        <v>0.1643992147861598</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2696353333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.8089060000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.427404741468018</v>
+      </c>
+      <c r="P19">
+        <v>0.4275277410011866</v>
+      </c>
+      <c r="Q19">
+        <v>5.899299598137556</v>
+      </c>
+      <c r="R19">
+        <v>53.093696383238</v>
+      </c>
+      <c r="S19">
+        <v>0.06396860062596844</v>
+      </c>
+      <c r="T19">
+        <v>0.07028522491989579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>21.87880766666666</v>
+      </c>
+      <c r="H20">
+        <v>65.63642299999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1496675034681502</v>
+      </c>
+      <c r="J20">
+        <v>0.1643992147861598</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0005445</v>
+      </c>
+      <c r="N20">
+        <v>0.001089</v>
+      </c>
+      <c r="O20">
+        <v>0.000863098611195871</v>
+      </c>
+      <c r="P20">
+        <v>0.0005755646638179122</v>
+      </c>
+      <c r="Q20">
+        <v>0.0119130107745</v>
+      </c>
+      <c r="R20">
+        <v>0.07147806464699999</v>
+      </c>
+      <c r="S20">
+        <v>0.0001291778143845137</v>
+      </c>
+      <c r="T20">
+        <v>9.462237879032483E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21.87880766666666</v>
+      </c>
+      <c r="H21">
+        <v>65.63642299999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1496675034681502</v>
+      </c>
+      <c r="J21">
+        <v>0.1643992147861598</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.336129</v>
+      </c>
+      <c r="N21">
+        <v>1.008387</v>
+      </c>
+      <c r="O21">
+        <v>0.5328052765521707</v>
+      </c>
+      <c r="P21">
+        <v>0.5329586084971102</v>
+      </c>
+      <c r="Q21">
+        <v>7.354101742188998</v>
+      </c>
+      <c r="R21">
+        <v>66.18691567970099</v>
+      </c>
+      <c r="S21">
+        <v>0.07974363557622074</v>
+      </c>
+      <c r="T21">
+        <v>0.0876179767504493</v>
       </c>
     </row>
   </sheetData>
